--- a/data/npc_encounters.xlsx
+++ b/data/npc_encounters.xlsx
@@ -533,11 +533,11 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12"/>
@@ -549,13 +549,25 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -568,28 +580,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -598,16 +595,31 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,29 +629,32 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -659,6 +674,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -666,9 +682,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office Theme">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -682,22 +698,22 @@
         <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -706,7 +722,7 @@
         <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office Theme">
       <a:majorFont>
         <a:latin typeface="Helvetica Neue"/>
         <a:ea typeface="Helvetica Neue"/>
@@ -718,7 +734,7 @@
         <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Sheets">
+    <a:fmtScheme name="Office Theme">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -791,13 +807,31 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -858,17 +892,23 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -896,10 +936,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1147,14 +1187,20 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1439,7 +1485,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1467,10 +1513,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1721,20 +1767,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F175"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="12.6719" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="12.6719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.2188" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8984" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7969" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.0469" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85156" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
+    <row r="1" ht="13.55" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1747,36 +1795,36 @@
       <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" s="4">
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>384</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>400</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="4">
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="7">
         <v>7</v>
       </c>
       <c r="C3" s="6">
@@ -1785,18 +1833,18 @@
       <c r="D3" s="6">
         <v>1100</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>31</v>
       </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="4">
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" t="s" s="7">
         <v>8</v>
       </c>
       <c r="C4" s="6">
@@ -1805,18 +1853,18 @@
       <c r="D4" s="6">
         <v>1000</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>13</v>
       </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="4">
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="7">
         <v>9</v>
       </c>
       <c r="C5" s="6">
@@ -1825,18 +1873,18 @@
       <c r="D5" s="6">
         <v>1600</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>3</v>
       </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="4">
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" t="s" s="7">
         <v>10</v>
       </c>
       <c r="C6" s="6">
@@ -1845,18 +1893,18 @@
       <c r="D6" s="6">
         <v>1700</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>18</v>
       </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="4">
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" t="s" s="7">
         <v>11</v>
       </c>
       <c r="C7" s="6">
@@ -1865,18 +1913,18 @@
       <c r="D7" s="6">
         <v>1300</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>23</v>
       </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="4">
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" t="s" s="7">
         <v>12</v>
       </c>
       <c r="C8" s="6">
@@ -1885,16 +1933,16 @@
       <c r="D8" s="6">
         <v>1200</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="4">
+      <c r="E8" s="8"/>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="7">
         <v>13</v>
       </c>
       <c r="C9" s="6">
@@ -1903,18 +1951,18 @@
       <c r="D9" s="6">
         <v>1800</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="6">
         <v>12</v>
       </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="4">
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="7">
         <v>14</v>
       </c>
       <c r="C10" s="6">
@@ -1923,38 +1971,38 @@
       <c r="D10" s="6">
         <v>1700</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="6">
         <v>15</v>
       </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="13.65" customHeight="1">
-      <c r="A11" s="4">
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="13.55" customHeight="1">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="6">
         <v>781</v>
       </c>
       <c r="D11" s="6">
         <v>2200</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="6">
         <v>48</v>
       </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="13.65" customHeight="1">
-      <c r="A12" s="4">
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="13.55" customHeight="1">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="7">
         <v>16</v>
       </c>
       <c r="C12" s="6">
@@ -1963,18 +2011,18 @@
       <c r="D12" s="6">
         <v>2000</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="6">
         <v>45</v>
       </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="13.65" customHeight="1">
-      <c r="A13" s="4">
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="13.55" customHeight="1">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="7">
         <v>17</v>
       </c>
       <c r="C13" s="6">
@@ -1983,18 +2031,18 @@
       <c r="D13" s="6">
         <v>2400</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="6">
         <v>40</v>
       </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="13.65" customHeight="1">
-      <c r="A14" s="4">
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="13.55" customHeight="1">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="7">
         <v>18</v>
       </c>
       <c r="C14" s="6">
@@ -2003,18 +2051,18 @@
       <c r="D14" s="6">
         <v>2100</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="6">
         <v>46</v>
       </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="13.65" customHeight="1">
-      <c r="A15" s="4">
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="13.55" customHeight="1">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="7">
         <v>19</v>
       </c>
       <c r="C15" s="6">
@@ -2023,18 +2071,18 @@
       <c r="D15" s="6">
         <v>2600</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="6">
         <v>38</v>
       </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" ht="13.65" customHeight="1">
-      <c r="A16" s="4">
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="13.55" customHeight="1">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C16" s="6">
@@ -2043,18 +2091,18 @@
       <c r="D16" s="6">
         <v>1900</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="6">
         <v>7</v>
       </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" ht="13.65" customHeight="1">
-      <c r="A17" s="4">
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="13.55" customHeight="1">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="7">
         <v>21</v>
       </c>
       <c r="C17" s="6">
@@ -2063,18 +2111,18 @@
       <c r="D17" s="6">
         <v>3800</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="6">
         <v>36</v>
       </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="13.65" customHeight="1">
-      <c r="A18" s="4">
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="13.55" customHeight="1">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="7">
         <v>22</v>
       </c>
       <c r="C18" s="6">
@@ -2083,18 +2131,18 @@
       <c r="D18" s="6">
         <v>2100</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="6">
         <v>25</v>
       </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" ht="13.65" customHeight="1">
-      <c r="A19" s="4">
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="13.55" customHeight="1">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C19" s="6">
@@ -2103,16 +2151,18 @@
       <c r="D19" s="6">
         <v>2400</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="4">
+      <c r="E19" s="6">
+        <v>178</v>
+      </c>
+      <c r="F19" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="13.65" customHeight="1">
-      <c r="A20" s="4">
+    <row r="20" ht="13.55" customHeight="1">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="7">
         <v>24</v>
       </c>
       <c r="C20" s="6">
@@ -2121,16 +2171,18 @@
       <c r="D20" s="6">
         <v>2700</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="4">
+      <c r="E20" s="6">
+        <v>178</v>
+      </c>
+      <c r="F20" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="13.65" customHeight="1">
-      <c r="A21" s="4">
+    <row r="21" ht="13.55" customHeight="1">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="7">
         <v>25</v>
       </c>
       <c r="C21" s="6">
@@ -2139,16 +2191,18 @@
       <c r="D21" s="6">
         <v>3200</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="13.65" customHeight="1">
-      <c r="A22" s="4">
+      <c r="E21" s="6">
+        <v>178</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="13.55" customHeight="1">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="7">
         <v>26</v>
       </c>
       <c r="C22" s="6">
@@ -2157,18 +2211,18 @@
       <c r="D22" s="6">
         <v>2400</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="6">
         <v>28</v>
       </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" ht="13.65" customHeight="1">
-      <c r="A23" s="4">
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="13.55" customHeight="1">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="7">
         <v>27</v>
       </c>
       <c r="C23" s="6">
@@ -2177,16 +2231,18 @@
       <c r="D23" s="6">
         <v>2800</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="4">
+      <c r="E23" s="6">
+        <v>178</v>
+      </c>
+      <c r="F23" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="13.65" customHeight="1">
-      <c r="A24" s="4">
+    <row r="24" ht="13.55" customHeight="1">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="7">
         <v>28</v>
       </c>
       <c r="C24" s="6">
@@ -2195,16 +2251,16 @@
       <c r="D24" s="6">
         <v>12000</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" ht="13.65" customHeight="1">
-      <c r="A25" s="4">
+      <c r="E24" s="8"/>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="13.55" customHeight="1">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="7">
         <v>29</v>
       </c>
       <c r="C25" s="6">
@@ -2213,16 +2269,16 @@
       <c r="D25" s="6">
         <v>3400</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="4">
+      <c r="E25" s="8"/>
+      <c r="F25" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="13.65" customHeight="1">
-      <c r="A26" s="4">
+    <row r="26" ht="13.55" customHeight="1">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="7">
         <v>30</v>
       </c>
       <c r="C26" s="6">
@@ -2231,18 +2287,18 @@
       <c r="D26" s="6">
         <v>5400</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="6">
         <v>50</v>
       </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" ht="13.65" customHeight="1">
-      <c r="A27" s="4">
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="13.55" customHeight="1">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="7">
         <v>31</v>
       </c>
       <c r="C27" s="6">
@@ -2251,16 +2307,16 @@
       <c r="D27" s="6">
         <v>3600</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" ht="13.65" customHeight="1">
-      <c r="A28" s="4">
+      <c r="E27" s="8"/>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="13.55" customHeight="1">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="7">
         <v>32</v>
       </c>
       <c r="C28" s="6">
@@ -2269,16 +2325,16 @@
       <c r="D28" s="6">
         <v>3900</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="4">
+      <c r="E28" s="8"/>
+      <c r="F28" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="13.65" customHeight="1">
-      <c r="A29" s="4">
+    <row r="29" ht="13.55" customHeight="1">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="7">
         <v>33</v>
       </c>
       <c r="C29" s="6">
@@ -2287,16 +2343,16 @@
       <c r="D29" s="6">
         <v>20000</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" ht="13.65" customHeight="1">
-      <c r="A30" s="4">
+      <c r="E29" s="8"/>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="13.55" customHeight="1">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="7">
         <v>34</v>
       </c>
       <c r="C30" s="6">
@@ -2305,16 +2361,18 @@
       <c r="D30" s="6">
         <v>5000</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" ht="13.65" customHeight="1">
-      <c r="A31" s="4">
+      <c r="E30" s="6">
+        <v>178</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="13.55" customHeight="1">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="7">
         <v>35</v>
       </c>
       <c r="C31" s="6">
@@ -2323,36 +2381,36 @@
       <c r="D31" s="6">
         <v>12000</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" ht="13.65" customHeight="1">
-      <c r="A32" s="4">
+      <c r="E31" s="8"/>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="13.55" customHeight="1">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="7">
         <v>36</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="6">
         <v>691</v>
       </c>
       <c r="D32" s="6">
         <v>3500</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="6">
         <v>58</v>
       </c>
-      <c r="F32" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" ht="13.65" customHeight="1">
-      <c r="A33" s="4">
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="13.55" customHeight="1">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="7">
         <v>37</v>
       </c>
       <c r="C33" s="6">
@@ -2361,18 +2419,18 @@
       <c r="D33" s="6">
         <v>3000</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="6">
         <v>86</v>
       </c>
-      <c r="F33" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" ht="13.65" customHeight="1">
-      <c r="A34" s="4">
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="13.55" customHeight="1">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="7">
         <v>38</v>
       </c>
       <c r="C34" s="6">
@@ -2381,18 +2439,18 @@
       <c r="D34" s="6">
         <v>3000</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="6">
         <v>90</v>
       </c>
-      <c r="F34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" ht="13.65" customHeight="1">
-      <c r="A35" s="4">
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="13.55" customHeight="1">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="7">
         <v>39</v>
       </c>
       <c r="C35" s="6">
@@ -2401,18 +2459,18 @@
       <c r="D35" s="6">
         <v>3300</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="6">
         <v>96</v>
       </c>
-      <c r="F35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" ht="13.65" customHeight="1">
-      <c r="A36" s="4">
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="13.55" customHeight="1">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="7">
         <v>40</v>
       </c>
       <c r="C36" s="6">
@@ -2421,18 +2479,18 @@
       <c r="D36" s="6">
         <v>3600</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="6">
         <v>78</v>
       </c>
-      <c r="F36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" ht="13.65" customHeight="1">
-      <c r="A37" s="4">
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="13.55" customHeight="1">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="7">
         <v>41</v>
       </c>
       <c r="C37" s="6">
@@ -2441,18 +2499,18 @@
       <c r="D37" s="6">
         <v>3100</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="6">
         <v>77</v>
       </c>
-      <c r="F37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" ht="13.65" customHeight="1">
-      <c r="A38" s="4">
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" ht="13.55" customHeight="1">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="7">
         <v>42</v>
       </c>
       <c r="C38" s="6">
@@ -2461,18 +2519,18 @@
       <c r="D38" s="6">
         <v>3300</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="6">
         <v>52</v>
       </c>
-      <c r="F38" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" ht="13.65" customHeight="1">
-      <c r="A39" s="4">
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="13.55" customHeight="1">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="7">
         <v>43</v>
       </c>
       <c r="C39" s="6">
@@ -2481,18 +2539,18 @@
       <c r="D39" s="6">
         <v>4200</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="6">
         <v>58</v>
       </c>
-      <c r="F39" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" ht="13.65" customHeight="1">
-      <c r="A40" s="4">
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" ht="13.55" customHeight="1">
+      <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="7">
         <v>44</v>
       </c>
       <c r="C40" s="6">
@@ -2501,16 +2559,16 @@
       <c r="D40" s="6">
         <v>14000</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" ht="13.65" customHeight="1">
-      <c r="A41" s="4">
+      <c r="E40" s="8"/>
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" ht="13.55" customHeight="1">
+      <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="7">
         <v>45</v>
       </c>
       <c r="C41" s="6">
@@ -2519,16 +2577,16 @@
       <c r="D41" s="6">
         <v>3200</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" ht="13.65" customHeight="1">
-      <c r="A42" s="4">
+      <c r="E41" s="8"/>
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" ht="13.55" customHeight="1">
+      <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="7">
         <v>46</v>
       </c>
       <c r="C42" s="6">
@@ -2537,16 +2595,16 @@
       <c r="D42" s="6">
         <v>3200</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" ht="13.65" customHeight="1">
-      <c r="A43" s="4">
+      <c r="E42" s="8"/>
+      <c r="F42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" ht="13.55" customHeight="1">
+      <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="7">
         <v>47</v>
       </c>
       <c r="C43" s="6">
@@ -2555,18 +2613,18 @@
       <c r="D43" s="6">
         <v>10000</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="6">
         <v>59</v>
       </c>
-      <c r="F43" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" ht="13.65" customHeight="1">
-      <c r="A44" s="4">
+      <c r="F43" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" ht="13.55" customHeight="1">
+      <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="7">
         <v>48</v>
       </c>
       <c r="C44" s="6">
@@ -2575,16 +2633,16 @@
       <c r="D44" s="6">
         <v>13000</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" ht="13.65" customHeight="1">
-      <c r="A45" s="4">
+      <c r="E44" s="8"/>
+      <c r="F44" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" ht="13.55" customHeight="1">
+      <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="7">
         <v>49</v>
       </c>
       <c r="C45" s="6">
@@ -2593,18 +2651,18 @@
       <c r="D45" s="6">
         <v>15000</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="6">
         <v>8</v>
       </c>
-      <c r="F45" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" ht="13.65" customHeight="1">
-      <c r="A46" s="4">
+      <c r="F45" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" ht="13.55" customHeight="1">
+      <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="7">
         <v>50</v>
       </c>
       <c r="C46" s="6">
@@ -2613,18 +2671,18 @@
       <c r="D46" s="6">
         <v>6800</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="6">
         <v>103</v>
       </c>
-      <c r="F46" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" ht="13.65" customHeight="1">
-      <c r="A47" s="4">
+      <c r="F46" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" ht="13.55" customHeight="1">
+      <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="7">
         <v>51</v>
       </c>
       <c r="C47" s="6">
@@ -2633,16 +2691,16 @@
       <c r="D47" s="6">
         <v>6400</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" ht="13.65" customHeight="1">
-      <c r="A48" s="4">
+      <c r="E47" s="8"/>
+      <c r="F47" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" ht="13.55" customHeight="1">
+      <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="7">
         <v>52</v>
       </c>
       <c r="C48" s="6">
@@ -2651,18 +2709,18 @@
       <c r="D48" s="6">
         <v>7000</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="6">
         <v>101</v>
       </c>
-      <c r="F48" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" ht="13.65" customHeight="1">
-      <c r="A49" s="4">
+      <c r="F48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" ht="13.55" customHeight="1">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="7">
         <v>53</v>
       </c>
       <c r="C49" s="6">
@@ -2671,18 +2729,18 @@
       <c r="D49" s="6">
         <v>6300</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="6">
         <v>102</v>
       </c>
-      <c r="F49" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" ht="13.65" customHeight="1">
-      <c r="A50" s="4">
+      <c r="F49" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" ht="13.55" customHeight="1">
+      <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="7">
         <v>54</v>
       </c>
       <c r="C50" s="6">
@@ -2691,18 +2749,18 @@
       <c r="D50" s="6">
         <v>6700</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="6">
         <v>111</v>
       </c>
-      <c r="F50" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" ht="13.65" customHeight="1">
-      <c r="A51" s="4">
+      <c r="F50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" ht="13.55" customHeight="1">
+      <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="7">
         <v>55</v>
       </c>
       <c r="C51" s="6">
@@ -2711,18 +2769,18 @@
       <c r="D51" s="6">
         <v>7600</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="6">
         <v>116</v>
       </c>
-      <c r="F51" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" ht="13.65" customHeight="1">
-      <c r="A52" s="4">
+      <c r="F51" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" ht="13.55" customHeight="1">
+      <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="7">
         <v>56</v>
       </c>
       <c r="C52" s="6">
@@ -2731,16 +2789,16 @@
       <c r="D52" s="6">
         <v>7100</v>
       </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" ht="13.65" customHeight="1">
-      <c r="A53" s="4">
+      <c r="E52" s="8"/>
+      <c r="F52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" ht="13.55" customHeight="1">
+      <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="7">
         <v>57</v>
       </c>
       <c r="C53" s="6">
@@ -2749,18 +2807,18 @@
       <c r="D53" s="6">
         <v>7400</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="6">
         <v>113</v>
       </c>
-      <c r="F53" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" ht="13.65" customHeight="1">
-      <c r="A54" s="4">
+      <c r="F53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" ht="13.55" customHeight="1">
+      <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="7">
         <v>58</v>
       </c>
       <c r="C54" s="6">
@@ -2769,18 +2827,18 @@
       <c r="D54" s="6">
         <v>7500</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="6">
         <v>109</v>
       </c>
-      <c r="F54" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" ht="13.65" customHeight="1">
-      <c r="A55" s="4">
+      <c r="F54" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" ht="13.55" customHeight="1">
+      <c r="A55" s="6">
         <v>54</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="7">
         <v>59</v>
       </c>
       <c r="C55" s="6">
@@ -2789,16 +2847,16 @@
       <c r="D55" s="6">
         <v>24000</v>
       </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" ht="13.65" customHeight="1">
-      <c r="A56" s="4">
+      <c r="E55" s="8"/>
+      <c r="F55" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" ht="13.55" customHeight="1">
+      <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="7">
         <v>60</v>
       </c>
       <c r="C56" s="6">
@@ -2807,16 +2865,16 @@
       <c r="D56" s="6">
         <v>40000</v>
       </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" ht="13.65" customHeight="1">
-      <c r="A57" s="4">
+      <c r="E56" s="8"/>
+      <c r="F56" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" ht="13.55" customHeight="1">
+      <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="7">
         <v>61</v>
       </c>
       <c r="C57" s="6">
@@ -2825,16 +2883,16 @@
       <c r="D57" s="6">
         <v>4900</v>
       </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" ht="13.65" customHeight="1">
-      <c r="A58" s="4">
+      <c r="E57" s="8"/>
+      <c r="F57" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" ht="13.55" customHeight="1">
+      <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="7">
         <v>62</v>
       </c>
       <c r="C58" s="6">
@@ -2843,16 +2901,16 @@
       <c r="D58" s="6">
         <v>8800</v>
       </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" ht="13.65" customHeight="1">
-      <c r="A59" s="4">
+      <c r="E58" s="8"/>
+      <c r="F58" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" ht="13.55" customHeight="1">
+      <c r="A59" s="6">
         <v>58</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="7">
         <v>63</v>
       </c>
       <c r="C59" s="6">
@@ -2861,99 +2919,99 @@
       <c r="D59" s="6">
         <v>9000</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="6">
         <v>125</v>
       </c>
-      <c r="F59" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" ht="13.65" customHeight="1">
-      <c r="A60" s="4">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>64</v>
+      <c r="F59" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" ht="13.55" customHeight="1">
+      <c r="A60" s="6">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s" s="7">
+        <v>63</v>
       </c>
       <c r="C60" s="6">
-        <v>1964</v>
+        <v>3784</v>
       </c>
       <c r="D60" s="6">
         <v>9000</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="6">
         <v>130</v>
       </c>
-      <c r="F60" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" ht="13.65" customHeight="1">
-      <c r="A61" s="4">
+      <c r="F60" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" ht="13.55" customHeight="1">
+      <c r="A61" s="6">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s" s="7">
+        <v>64</v>
+      </c>
+      <c r="C61" s="6">
+        <v>1964</v>
+      </c>
+      <c r="D61" s="6">
+        <v>9000</v>
+      </c>
+      <c r="E61" s="6">
+        <v>147</v>
+      </c>
+      <c r="F61" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" ht="13.55" customHeight="1">
+      <c r="A62" s="6">
         <v>60</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B62" t="s" s="7">
         <v>65</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C62" s="6">
         <v>4058</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D62" s="6">
         <v>3600</v>
       </c>
-      <c r="E61" s="4">
-        <v>147</v>
-      </c>
-      <c r="F61" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" ht="13.65" customHeight="1">
-      <c r="A62" s="4">
+      <c r="E62" s="6">
+        <v>92</v>
+      </c>
+      <c r="F62" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" ht="13.55" customHeight="1">
+      <c r="A63" s="6">
         <v>61</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B63" t="s" s="7">
         <v>66</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C63" s="6">
         <v>4558</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D63" s="6">
         <v>9400</v>
       </c>
-      <c r="E62" s="4">
-        <v>92</v>
-      </c>
-      <c r="F62" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" ht="13.65" customHeight="1">
-      <c r="A63" s="4">
+      <c r="E63" s="6">
+        <v>149</v>
+      </c>
+      <c r="F63" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" ht="13.55" customHeight="1">
+      <c r="A64" s="6">
         <v>62</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B64" t="s" s="7">
         <v>67</v>
-      </c>
-      <c r="C63" s="6">
-        <v>2704</v>
-      </c>
-      <c r="D63" s="6">
-        <v>5600</v>
-      </c>
-      <c r="E63" s="4">
-        <v>149</v>
-      </c>
-      <c r="F63" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" ht="13.65" customHeight="1">
-      <c r="A64" s="4">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>68</v>
       </c>
       <c r="C64" s="6">
         <v>2704</v>
@@ -2961,147 +3019,147 @@
       <c r="D64" s="6">
         <v>5600</v>
       </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="4">
+      <c r="E64" s="8"/>
+      <c r="F64" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="65" ht="13.65" customHeight="1">
-      <c r="A65" s="4">
+    <row r="65" ht="13.55" customHeight="1">
+      <c r="A65" s="6">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s" s="7">
+        <v>68</v>
+      </c>
+      <c r="C65" s="6">
+        <v>2704</v>
+      </c>
+      <c r="D65" s="6">
+        <v>5600</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" ht="13.55" customHeight="1">
+      <c r="A66" s="6">
         <v>64</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B66" t="s" s="7">
         <v>69</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C66" s="6">
         <v>3050</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D66" s="6">
         <v>9600</v>
       </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" ht="13.65" customHeight="1">
-      <c r="A66" s="4">
+      <c r="E66" s="6">
+        <v>133</v>
+      </c>
+      <c r="F66" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" ht="13.55" customHeight="1">
+      <c r="A67" s="6">
         <v>65</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B67" t="s" s="7">
         <v>70</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C67" s="6">
         <v>3284</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D67" s="6">
         <v>8500</v>
       </c>
-      <c r="E66" s="4">
-        <v>133</v>
-      </c>
-      <c r="F66" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" ht="13.65" customHeight="1">
-      <c r="A67" s="4">
+      <c r="E67" s="8"/>
+      <c r="F67" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" ht="13.55" customHeight="1">
+      <c r="A68" s="6">
         <v>66</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B68" t="s" s="7">
         <v>71</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C68" s="6">
         <v>3811</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D68" s="6">
         <v>20000</v>
       </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" ht="13.65" customHeight="1">
-      <c r="A68" s="4">
+      <c r="E68" s="8"/>
+      <c r="F68" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" ht="13.55" customHeight="1">
+      <c r="A69" s="6">
         <v>67</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B69" t="s" s="7">
         <v>72</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C69" s="6">
         <v>8084</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D69" s="6">
         <v>16000</v>
       </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" ht="13.65" customHeight="1">
-      <c r="A69" s="4">
+      <c r="E69" s="6">
+        <v>114</v>
+      </c>
+      <c r="F69" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" ht="13.55" customHeight="1">
+      <c r="A70" s="6">
         <v>68</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B70" t="s" s="7">
         <v>73</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C70" s="6">
         <v>4050</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D70" s="6">
         <v>6000</v>
       </c>
-      <c r="E69" s="4">
-        <v>114</v>
-      </c>
-      <c r="F69" s="4">
+      <c r="E70" s="8"/>
+      <c r="F70" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="70" ht="13.65" customHeight="1">
-      <c r="A70" s="4">
+    <row r="71" ht="13.55" customHeight="1">
+      <c r="A71" s="6">
         <v>69</v>
       </c>
-      <c r="B70" t="s" s="2">
+      <c r="B71" t="s" s="7">
         <v>74</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C71" s="6">
         <v>4405</v>
       </c>
-      <c r="D70" s="4">
-        <v>0</v>
-      </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" ht="13.65" customHeight="1">
-      <c r="A71" s="4">
+      <c r="D71" s="6">
+        <v>0</v>
+      </c>
+      <c r="E71" s="8"/>
+      <c r="F71" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" ht="13.55" customHeight="1">
+      <c r="A72" s="6">
         <v>70</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B72" t="s" s="7">
         <v>75</v>
-      </c>
-      <c r="C71" s="6">
-        <v>4690</v>
-      </c>
-      <c r="D71" s="6">
-        <v>5800</v>
-      </c>
-      <c r="E71" s="7"/>
-      <c r="F71" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" ht="13.65" customHeight="1">
-      <c r="A72" s="4">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="C72" s="6">
         <v>4690</v>
@@ -3109,1813 +3167,1795 @@
       <c r="D72" s="6">
         <v>5800</v>
       </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" ht="13.65" customHeight="1">
-      <c r="A73" s="4">
+      <c r="E72" s="8"/>
+      <c r="F72" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" ht="13.55" customHeight="1">
+      <c r="A73" s="6">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s" s="7">
+        <v>76</v>
+      </c>
+      <c r="C73" s="6">
+        <v>4690</v>
+      </c>
+      <c r="D73" s="6">
+        <v>5800</v>
+      </c>
+      <c r="E73" s="8"/>
+      <c r="F73" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" ht="13.55" customHeight="1">
+      <c r="A74" s="6">
         <v>72</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B74" t="s" s="7">
         <v>77</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C74" s="6">
         <v>5109</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D74" s="6">
         <v>4600</v>
       </c>
-      <c r="E73" s="7"/>
-      <c r="F73" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" ht="13.65" customHeight="1">
-      <c r="A74" s="4">
+      <c r="E74" s="6">
+        <v>70</v>
+      </c>
+      <c r="F74" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" ht="13.55" customHeight="1">
+      <c r="A75" s="6">
         <v>73</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B75" t="s" s="7">
         <v>78</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C75" s="6">
         <v>5155</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D75" s="6">
         <v>4700</v>
       </c>
-      <c r="E74" s="4">
-        <v>70</v>
-      </c>
-      <c r="F74" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" ht="13.65" customHeight="1">
-      <c r="A75" s="4">
+      <c r="E75" s="8"/>
+      <c r="F75" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" ht="13.55" customHeight="1">
+      <c r="A76" s="6">
         <v>74</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B76" t="s" s="7">
         <v>79</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C76" s="6">
         <v>5588</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D76" s="6">
         <v>6600</v>
       </c>
-      <c r="E75" s="7"/>
-      <c r="F75" s="4">
+      <c r="E76" s="8"/>
+      <c r="F76" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="76" ht="13.65" customHeight="1">
-      <c r="A76" s="4">
+    <row r="77" ht="13.55" customHeight="1">
+      <c r="A77" s="6">
         <v>75</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B77" t="s" s="7">
         <v>80</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C77" s="6">
         <v>7518</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D77" s="6">
         <v>8400</v>
       </c>
-      <c r="E76" s="7"/>
-      <c r="F76" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" ht="13.65" customHeight="1">
-      <c r="A77" s="4">
+      <c r="E77" s="8"/>
+      <c r="F77" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" ht="13.55" customHeight="1">
+      <c r="A78" s="6">
         <v>76</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B78" t="s" s="7">
         <v>81</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C78" s="6">
         <v>6577</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D78" s="6">
         <v>7800</v>
       </c>
-      <c r="E77" s="7"/>
-      <c r="F77" s="4">
+      <c r="E78" s="8"/>
+      <c r="F78" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="78" ht="13.65" customHeight="1">
-      <c r="A78" s="4">
+    <row r="79" ht="13.55" customHeight="1">
+      <c r="A79" s="6">
         <v>77</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="B79" t="s" s="7">
         <v>82</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C79" s="6">
         <v>7622</v>
-      </c>
-      <c r="D78" s="6">
-        <v>10000</v>
-      </c>
-      <c r="E78" s="7"/>
-      <c r="F78" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" ht="13.65" customHeight="1">
-      <c r="A79" s="4">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="C79" s="6">
-        <v>4068</v>
       </c>
       <c r="D79" s="6">
         <v>10000</v>
       </c>
-      <c r="E79" s="7"/>
-      <c r="F79" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" ht="13.65" customHeight="1">
-      <c r="A80" s="4">
+      <c r="E79" s="8"/>
+      <c r="F79" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" ht="13.55" customHeight="1">
+      <c r="A80" s="6">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="C80" s="6">
+        <v>4068</v>
+      </c>
+      <c r="D80" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E80" s="6">
+        <v>150</v>
+      </c>
+      <c r="F80" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" ht="13.55" customHeight="1">
+      <c r="A81" s="6">
         <v>79</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B81" t="s" s="7">
         <v>84</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C81" s="6">
         <v>4095</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D81" s="6">
         <v>7800</v>
       </c>
-      <c r="E80" s="4">
-        <v>150</v>
-      </c>
-      <c r="F80" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" ht="13.65" customHeight="1">
-      <c r="A81" s="4">
+      <c r="E81" s="6">
+        <v>117</v>
+      </c>
+      <c r="F81" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" ht="13.55" customHeight="1">
+      <c r="A82" s="6">
         <v>80</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B82" t="s" s="7">
         <v>85</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C82" s="6">
         <v>4907</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D82" s="6">
         <v>16000</v>
       </c>
-      <c r="E81" s="4">
-        <v>117</v>
-      </c>
-      <c r="F81" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" ht="13.65" customHeight="1">
-      <c r="A82" s="4">
+      <c r="E82" s="6">
+        <v>135</v>
+      </c>
+      <c r="F82" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" ht="13.55" customHeight="1">
+      <c r="A83" s="6">
         <v>81</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B83" t="s" s="7">
         <v>86</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C83" s="6">
         <v>6240</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D83" s="6">
         <v>1700</v>
       </c>
-      <c r="E82" s="4">
-        <v>135</v>
-      </c>
-      <c r="F82" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" ht="13.65" customHeight="1">
-      <c r="A83" s="4">
+      <c r="E83" s="8"/>
+      <c r="F83" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" ht="13.55" customHeight="1">
+      <c r="A84" s="6">
         <v>82</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B84" t="s" s="7">
         <v>87</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C84" s="6">
         <v>3162</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D84" s="6">
         <v>21000</v>
       </c>
-      <c r="E83" s="7"/>
-      <c r="F83" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" ht="13.65" customHeight="1">
-      <c r="A84" s="4">
+      <c r="E84" s="6">
+        <v>142</v>
+      </c>
+      <c r="F84" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" ht="13.55" customHeight="1">
+      <c r="A85" s="6">
         <v>83</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B85" t="s" s="7">
         <v>88</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C85" s="6">
         <v>3269</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D85" s="6">
         <v>8500</v>
       </c>
-      <c r="E84" s="4">
-        <v>142</v>
-      </c>
-      <c r="F84" s="4">
+      <c r="E85" s="6">
+        <v>179</v>
+      </c>
+      <c r="F85" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="85" ht="13.65" customHeight="1">
-      <c r="A85" s="4">
+    <row r="86" ht="13.55" customHeight="1">
+      <c r="A86" s="6">
         <v>84</v>
       </c>
-      <c r="B85" t="s" s="2">
+      <c r="B86" t="s" s="7">
         <v>89</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C86" s="6">
         <v>3419</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D86" s="6">
         <v>12000</v>
       </c>
-      <c r="E85" s="7"/>
-      <c r="F85" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" ht="13.65" customHeight="1">
-      <c r="A86" s="4">
+      <c r="E86" s="6">
+        <v>151</v>
+      </c>
+      <c r="F86" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" ht="13.55" customHeight="1">
+      <c r="A87" s="6">
         <v>85</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B87" t="s" s="7">
         <v>90</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C87" s="6">
         <v>3971</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D87" s="6">
         <v>11000</v>
       </c>
-      <c r="E86" s="4">
-        <v>151</v>
-      </c>
-      <c r="F86" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" ht="13.65" customHeight="1">
-      <c r="A87" s="4">
+      <c r="E87" s="6">
+        <v>152</v>
+      </c>
+      <c r="F87" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" ht="13.55" customHeight="1">
+      <c r="A88" s="6">
         <v>86</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B88" t="s" s="7">
         <v>91</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C88" s="6">
         <v>4897</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D88" s="6">
         <v>24000</v>
       </c>
-      <c r="E87" s="4">
-        <v>152</v>
-      </c>
-      <c r="F87" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" ht="13.65" customHeight="1">
-      <c r="A88" s="4">
+      <c r="E88" s="8"/>
+      <c r="F88" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" ht="13.55" customHeight="1">
+      <c r="A89" s="6">
         <v>87</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B89" t="s" s="7">
         <v>92</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C89" s="6">
         <v>10920</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D89" s="6">
         <v>28000</v>
       </c>
-      <c r="E88" s="7"/>
-      <c r="F88" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" ht="13.65" customHeight="1">
-      <c r="A89" s="4">
+      <c r="E89" s="8"/>
+      <c r="F89" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" ht="13.55" customHeight="1">
+      <c r="A90" s="6">
         <v>88</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B90" t="s" s="7">
         <v>93</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C90" s="6">
         <v>5671</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D90" s="6">
         <v>9600</v>
       </c>
-      <c r="E89" s="7"/>
-      <c r="F89" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" ht="13.65" customHeight="1">
-      <c r="A90" s="4">
+      <c r="E90" s="6">
+        <v>179</v>
+      </c>
+      <c r="F90" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" ht="13.55" customHeight="1">
+      <c r="A91" s="6">
         <v>89</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B91" t="s" s="7">
         <v>94</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C91" s="6">
         <v>6301</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D91" s="6">
         <v>24000</v>
       </c>
-      <c r="E90" s="7"/>
-      <c r="F90" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" ht="13.65" customHeight="1">
-      <c r="A91" s="4">
+      <c r="E91" s="8"/>
+      <c r="F91" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" ht="13.55" customHeight="1">
+      <c r="A92" s="6">
         <v>90</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B92" t="s" s="7">
         <v>95</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C92" s="6">
         <v>7952</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D92" s="6">
         <v>15000</v>
       </c>
-      <c r="E91" s="7"/>
-      <c r="F91" s="4">
+      <c r="E92" s="6">
+        <v>179</v>
+      </c>
+      <c r="F92" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="92" ht="13.65" customHeight="1">
-      <c r="A92" s="4">
+    <row r="93" ht="13.55" customHeight="1">
+      <c r="A93" s="6">
         <v>91</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B93" t="s" s="7">
         <v>96</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C93" s="6">
         <v>9210</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D93" s="6">
         <v>12000</v>
       </c>
-      <c r="E92" s="7"/>
-      <c r="F92" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" ht="13.65" customHeight="1">
-      <c r="A93" s="4">
+      <c r="E93" s="6">
+        <v>179</v>
+      </c>
+      <c r="F93" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" ht="13.55" customHeight="1">
+      <c r="A94" s="6">
         <v>92</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B94" t="s" s="7">
         <v>97</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C94" s="6">
         <v>11342</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D94" s="6">
         <v>30000</v>
       </c>
-      <c r="E93" s="7"/>
-      <c r="F93" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" ht="13.65" customHeight="1">
-      <c r="A94" s="4">
+      <c r="E94" s="8"/>
+      <c r="F94" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" ht="13.55" customHeight="1">
+      <c r="A95" s="6">
         <v>93</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B95" t="s" s="7">
         <v>98</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C95" s="6">
         <v>5413</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D95" s="6">
         <v>10800</v>
       </c>
-      <c r="E94" s="7"/>
-      <c r="F94" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" ht="13.65" customHeight="1">
-      <c r="A95" s="4">
+      <c r="E95" s="8"/>
+      <c r="F95" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" ht="13.55" customHeight="1">
+      <c r="A96" s="6">
         <v>94</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B96" t="s" s="7">
         <v>99</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C96" s="6">
         <v>3725</v>
-      </c>
-      <c r="D95" s="6">
-        <v>10000</v>
-      </c>
-      <c r="E95" s="7"/>
-      <c r="F95" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" ht="13.65" customHeight="1">
-      <c r="A96" s="4">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="C96" s="6">
-        <v>5876</v>
       </c>
       <c r="D96" s="6">
         <v>10000</v>
       </c>
-      <c r="E96" s="7"/>
-      <c r="F96" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" ht="13.65" customHeight="1">
-      <c r="A97" s="4">
+      <c r="E96" s="8"/>
+      <c r="F96" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" ht="13.55" customHeight="1">
+      <c r="A97" s="6">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s" s="7">
+        <v>100</v>
+      </c>
+      <c r="C97" s="6">
+        <v>5876</v>
+      </c>
+      <c r="D97" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E97" s="8"/>
+      <c r="F97" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" ht="13.55" customHeight="1">
+      <c r="A98" s="6">
         <v>96</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B98" t="s" s="7">
         <v>101</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C98" s="6">
         <v>6069</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D98" s="6">
         <v>14000</v>
       </c>
-      <c r="E97" s="7"/>
-      <c r="F97" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" ht="13.65" customHeight="1">
-      <c r="A98" s="4">
+      <c r="E98" s="8"/>
+      <c r="F98" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" ht="13.55" customHeight="1">
+      <c r="A99" s="6">
         <v>97</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B99" t="s" s="7">
         <v>102</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C99" s="6">
         <v>7009</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D99" s="6">
         <v>11000</v>
       </c>
-      <c r="E98" s="7"/>
-      <c r="F98" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" ht="13.65" customHeight="1">
-      <c r="A99" s="4">
+      <c r="E99" s="8"/>
+      <c r="F99" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" ht="13.55" customHeight="1">
+      <c r="A100" s="6">
         <v>98</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B100" t="s" s="7">
         <v>103</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C100" s="6">
         <v>7528</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D100" s="6">
         <v>14000</v>
       </c>
-      <c r="E99" s="7"/>
-      <c r="F99" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" ht="13.65" customHeight="1">
-      <c r="A100" s="4">
+      <c r="E100" s="8"/>
+      <c r="F100" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" ht="13.55" customHeight="1">
+      <c r="A101" s="6">
         <v>99</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B101" t="s" s="7">
         <v>104</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C101" s="6">
         <v>9572</v>
       </c>
-      <c r="D100" s="6">
+      <c r="D101" s="6">
         <v>70000</v>
       </c>
-      <c r="E100" s="7"/>
-      <c r="F100" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" ht="13.65" customHeight="1">
-      <c r="A101" s="4">
+      <c r="E101" s="6">
+        <v>179</v>
+      </c>
+      <c r="F101" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" ht="13.55" customHeight="1">
+      <c r="A102" s="6">
         <v>100</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B102" t="s" s="7">
         <v>105</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C102" s="6">
         <v>11845</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D102" s="6">
         <v>20000</v>
       </c>
-      <c r="E101" s="7"/>
-      <c r="F101" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" ht="13.65" customHeight="1">
-      <c r="A102" s="4">
+      <c r="E102" s="8"/>
+      <c r="F102" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" ht="13.55" customHeight="1">
+      <c r="A103" s="6">
         <v>101</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B103" t="s" s="7">
         <v>106</v>
       </c>
-      <c r="C102" s="6">
+      <c r="C103" s="6">
         <v>12419</v>
       </c>
-      <c r="D102" s="6">
+      <c r="D103" s="6">
         <v>26000</v>
       </c>
-      <c r="E102" s="7"/>
-      <c r="F102" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" ht="13.65" customHeight="1">
-      <c r="A103" s="4">
+      <c r="E103" s="6">
+        <v>128</v>
+      </c>
+      <c r="F103" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" ht="13.55" customHeight="1">
+      <c r="A104" s="6">
         <v>102</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="B104" t="s" s="7">
         <v>107</v>
       </c>
-      <c r="C103" s="6">
+      <c r="C104" s="6">
         <v>7515</v>
       </c>
-      <c r="D103" s="6">
+      <c r="D104" s="6">
         <v>13000</v>
       </c>
-      <c r="E103" s="4">
-        <v>128</v>
-      </c>
-      <c r="F103" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" ht="13.65" customHeight="1">
-      <c r="A104" s="4">
+      <c r="E104" s="8"/>
+      <c r="F104" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" ht="13.55" customHeight="1">
+      <c r="A105" s="6">
         <v>103</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B105" t="s" s="7">
         <v>108</v>
       </c>
-      <c r="C104" s="6">
+      <c r="C105" s="6">
         <v>5758</v>
       </c>
-      <c r="D104" s="6">
+      <c r="D105" s="6">
         <v>16000</v>
       </c>
-      <c r="E104" s="7"/>
-      <c r="F104" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" ht="13.65" customHeight="1">
-      <c r="A105" s="4">
+      <c r="E105" s="8"/>
+      <c r="F105" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" ht="13.55" customHeight="1">
+      <c r="A106" s="6">
         <v>104</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B106" t="s" s="7">
         <v>109</v>
       </c>
-      <c r="C105" s="6">
+      <c r="C106" s="6">
         <v>6216</v>
       </c>
-      <c r="D105" s="6">
+      <c r="D106" s="6">
         <v>20000</v>
       </c>
-      <c r="E105" s="7"/>
-      <c r="F105" s="4">
+      <c r="E106" s="8"/>
+      <c r="F106" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="106" ht="13.65" customHeight="1">
-      <c r="A106" s="4">
+    <row r="107" ht="13.55" customHeight="1">
+      <c r="A107" s="6">
         <v>105</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B107" t="s" s="7">
         <v>110</v>
       </c>
-      <c r="C106" s="6">
+      <c r="C107" s="6">
         <v>7099</v>
       </c>
-      <c r="D106" s="6">
+      <c r="D107" s="6">
         <v>80000</v>
       </c>
-      <c r="E106" s="7"/>
-      <c r="F106" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" ht="13.65" customHeight="1">
-      <c r="A107" s="4">
+      <c r="E107" s="6">
+        <v>131</v>
+      </c>
+      <c r="F107" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" ht="13.55" customHeight="1">
+      <c r="A108" s="6">
         <v>106</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B108" t="s" s="7">
         <v>111</v>
       </c>
-      <c r="C107" s="6">
+      <c r="C108" s="6">
         <v>7911</v>
       </c>
-      <c r="D107" s="6">
+      <c r="D108" s="6">
         <v>14000</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E108" s="8"/>
+      <c r="F108" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" ht="13.55" customHeight="1">
+      <c r="A109" s="6">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s" s="7">
+        <v>112</v>
+      </c>
+      <c r="C109" s="6">
+        <v>8398</v>
+      </c>
+      <c r="D109" s="6">
+        <v>50000</v>
+      </c>
+      <c r="E109" s="8"/>
+      <c r="F109" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" ht="13.55" customHeight="1">
+      <c r="A110" s="6">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s" s="7">
+        <v>113</v>
+      </c>
+      <c r="C110" s="6">
+        <v>8575</v>
+      </c>
+      <c r="D110" s="6">
+        <v>29000</v>
+      </c>
+      <c r="E110" s="8"/>
+      <c r="F110" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" ht="13.55" customHeight="1">
+      <c r="A111" s="6">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s" s="7">
+        <v>114</v>
+      </c>
+      <c r="C111" s="6">
+        <v>10060</v>
+      </c>
+      <c r="D111" s="6">
+        <v>50000</v>
+      </c>
+      <c r="E111" s="8"/>
+      <c r="F111" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" ht="13.55" customHeight="1">
+      <c r="A112" s="6">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s" s="7">
+        <v>115</v>
+      </c>
+      <c r="C112" s="6">
+        <v>10399</v>
+      </c>
+      <c r="D112" s="6">
+        <v>120000</v>
+      </c>
+      <c r="E112" s="6">
         <v>131</v>
       </c>
-      <c r="F107" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" ht="13.65" customHeight="1">
-      <c r="A108" s="4">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s" s="2">
+      <c r="F112" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" ht="13.55" customHeight="1">
+      <c r="A113" s="6">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s" s="7">
+        <v>116</v>
+      </c>
+      <c r="C113" s="6">
+        <v>11170</v>
+      </c>
+      <c r="D113" s="6">
+        <v>80000</v>
+      </c>
+      <c r="E113" s="8"/>
+      <c r="F113" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" ht="13.55" customHeight="1">
+      <c r="A114" s="6">
         <v>112</v>
       </c>
-      <c r="C108" s="6">
-        <v>8398</v>
-      </c>
-      <c r="D108" s="6">
-        <v>50000</v>
-      </c>
-      <c r="E108" s="7"/>
-      <c r="F108" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" ht="13.65" customHeight="1">
-      <c r="A109" s="4">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s" s="2">
+      <c r="B114" t="s" s="7">
+        <v>117</v>
+      </c>
+      <c r="C114" s="6">
+        <v>11191</v>
+      </c>
+      <c r="D114" s="6">
+        <v>18000</v>
+      </c>
+      <c r="E114" s="8"/>
+      <c r="F114" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" ht="13.55" customHeight="1">
+      <c r="A115" s="6">
         <v>113</v>
       </c>
-      <c r="C109" s="6">
-        <v>8575</v>
-      </c>
-      <c r="D109" s="6">
+      <c r="B115" t="s" s="7">
+        <v>118</v>
+      </c>
+      <c r="C115" s="6">
+        <v>12243</v>
+      </c>
+      <c r="D115" s="6">
+        <v>19000</v>
+      </c>
+      <c r="E115" s="8"/>
+      <c r="F115" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" ht="13.55" customHeight="1">
+      <c r="A116" s="6">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s" s="7">
+        <v>119</v>
+      </c>
+      <c r="C116" s="6">
+        <v>12903</v>
+      </c>
+      <c r="D116" s="6">
+        <v>90000</v>
+      </c>
+      <c r="E116" s="8"/>
+      <c r="F116" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" ht="13.55" customHeight="1">
+      <c r="A117" s="6">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s" s="7">
+        <v>120</v>
+      </c>
+      <c r="C117" s="6">
+        <v>13010</v>
+      </c>
+      <c r="D117" s="6">
+        <v>21000</v>
+      </c>
+      <c r="E117" s="8"/>
+      <c r="F117" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" ht="13.55" customHeight="1">
+      <c r="A118" s="6">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s" s="7">
+        <v>121</v>
+      </c>
+      <c r="C118" s="6">
+        <v>23731</v>
+      </c>
+      <c r="D118" s="6">
+        <v>38000</v>
+      </c>
+      <c r="E118" s="6">
+        <v>179</v>
+      </c>
+      <c r="F118" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" ht="13.55" customHeight="1">
+      <c r="A119" s="6">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s" s="7">
+        <v>122</v>
+      </c>
+      <c r="C119" s="6">
+        <v>6868</v>
+      </c>
+      <c r="D119" s="6">
+        <v>83000</v>
+      </c>
+      <c r="E119" s="8"/>
+      <c r="F119" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" ht="13.55" customHeight="1">
+      <c r="A120" s="6">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s" s="7">
+        <v>123</v>
+      </c>
+      <c r="C120" s="6">
+        <v>14410</v>
+      </c>
+      <c r="D120" s="6">
         <v>29000</v>
       </c>
-      <c r="E109" s="7"/>
-      <c r="F109" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" ht="13.65" customHeight="1">
-      <c r="A110" s="4">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="C110" s="6">
-        <v>10060</v>
-      </c>
-      <c r="D110" s="6">
-        <v>50000</v>
-      </c>
-      <c r="E110" s="7"/>
-      <c r="F110" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" ht="13.65" customHeight="1">
-      <c r="A111" s="4">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="C111" s="6">
-        <v>10399</v>
-      </c>
-      <c r="D111" s="6">
-        <v>120000</v>
-      </c>
-      <c r="E111" s="7"/>
-      <c r="F111" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" ht="13.65" customHeight="1">
-      <c r="A112" s="4">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="C112" s="6">
-        <v>11170</v>
-      </c>
-      <c r="D112" s="6">
-        <v>80000</v>
-      </c>
-      <c r="E112" s="4">
-        <v>131</v>
-      </c>
-      <c r="F112" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" ht="13.65" customHeight="1">
-      <c r="A113" s="4">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="C113" s="6">
-        <v>11191</v>
-      </c>
-      <c r="D113" s="6">
-        <v>18000</v>
-      </c>
-      <c r="E113" s="7"/>
-      <c r="F113" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" ht="13.65" customHeight="1">
-      <c r="A114" s="4">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="C114" s="6">
-        <v>12243</v>
-      </c>
-      <c r="D114" s="6">
-        <v>19000</v>
-      </c>
-      <c r="E114" s="7"/>
-      <c r="F114" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" ht="13.65" customHeight="1">
-      <c r="A115" s="4">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s" s="2">
+      <c r="E120" s="8"/>
+      <c r="F120" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" ht="13.55" customHeight="1">
+      <c r="A121" s="6">
         <v>119</v>
       </c>
-      <c r="C115" s="6">
-        <v>12903</v>
-      </c>
-      <c r="D115" s="6">
-        <v>90000</v>
-      </c>
-      <c r="E115" s="7"/>
-      <c r="F115" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" ht="13.65" customHeight="1">
-      <c r="A116" s="4">
-        <v>115</v>
-      </c>
-      <c r="B116" t="s" s="2">
+      <c r="B121" t="s" s="7">
+        <v>124</v>
+      </c>
+      <c r="C121" s="6">
+        <v>8452</v>
+      </c>
+      <c r="D121" s="6">
+        <v>60000</v>
+      </c>
+      <c r="E121" s="8"/>
+      <c r="F121" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" ht="13.55" customHeight="1">
+      <c r="A122" s="6">
         <v>120</v>
       </c>
-      <c r="C116" s="6">
-        <v>13010</v>
-      </c>
-      <c r="D116" s="6">
-        <v>21000</v>
-      </c>
-      <c r="E116" s="7"/>
-      <c r="F116" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" ht="13.65" customHeight="1">
-      <c r="A117" s="4">
-        <v>116</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="C117" s="6">
-        <v>23731</v>
-      </c>
-      <c r="D117" s="6">
-        <v>38000</v>
-      </c>
-      <c r="E117" s="7"/>
-      <c r="F117" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" ht="13.65" customHeight="1">
-      <c r="A118" s="4">
-        <v>117</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="C118" s="6">
-        <v>6868</v>
-      </c>
-      <c r="D118" s="6">
-        <v>83000</v>
-      </c>
-      <c r="E118" s="7"/>
-      <c r="F118" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" ht="13.65" customHeight="1">
-      <c r="A119" s="4">
-        <v>118</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="C119" s="6">
-        <v>14410</v>
-      </c>
-      <c r="D119" s="6">
-        <v>29000</v>
-      </c>
-      <c r="E119" s="7"/>
-      <c r="F119" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" ht="13.65" customHeight="1">
-      <c r="A120" s="4">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="C120" s="6">
-        <v>8452</v>
-      </c>
-      <c r="D120" s="6">
-        <v>60000</v>
-      </c>
-      <c r="E120" s="7"/>
-      <c r="F120" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" ht="13.65" customHeight="1">
-      <c r="A121" s="4">
-        <v>120</v>
-      </c>
-      <c r="B121" t="s" s="2">
+      <c r="B122" t="s" s="7">
         <v>125</v>
-      </c>
-      <c r="C121" s="6">
-        <v>9087</v>
-      </c>
-      <c r="D121" s="4">
-        <v>0</v>
-      </c>
-      <c r="E121" s="7"/>
-      <c r="F121" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" ht="13.65" customHeight="1">
-      <c r="A122" s="4">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="C122" s="6">
         <v>9087</v>
       </c>
       <c r="D122" s="6">
+        <v>0</v>
+      </c>
+      <c r="E122" s="8"/>
+      <c r="F122" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" ht="13.55" customHeight="1">
+      <c r="A123" s="6">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s" s="7">
+        <v>126</v>
+      </c>
+      <c r="C123" s="6">
+        <v>9087</v>
+      </c>
+      <c r="D123" s="6">
         <v>60000</v>
       </c>
-      <c r="E122" s="7"/>
-      <c r="F122" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" ht="13.65" customHeight="1">
-      <c r="A123" s="4">
+      <c r="E123" s="8"/>
+      <c r="F123" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" ht="13.55" customHeight="1">
+      <c r="A124" s="6">
         <v>122</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B124" t="s" s="7">
         <v>127</v>
       </c>
-      <c r="C123" s="6">
+      <c r="C124" s="6">
         <v>13141</v>
       </c>
-      <c r="D123" s="6">
+      <c r="D124" s="6">
         <v>48000</v>
       </c>
-      <c r="E123" s="7"/>
-      <c r="F123" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" ht="13.65" customHeight="1">
-      <c r="A124" s="4">
+      <c r="E124" s="8"/>
+      <c r="F124" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" ht="13.55" customHeight="1">
+      <c r="A125" s="6">
         <v>123</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B125" t="s" s="7">
         <v>128</v>
       </c>
-      <c r="C124" s="6">
+      <c r="C125" s="6">
         <v>23501</v>
       </c>
-      <c r="D124" s="6">
+      <c r="D125" s="6">
         <v>70000</v>
       </c>
-      <c r="E124" s="7"/>
-      <c r="F124" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" ht="13.65" customHeight="1">
-      <c r="A125" s="4">
+      <c r="E125" s="8"/>
+      <c r="F125" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" ht="13.55" customHeight="1">
+      <c r="A126" s="6">
         <v>124</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B126" t="s" s="7">
         <v>129</v>
       </c>
-      <c r="C125" s="6">
+      <c r="C126" s="6">
         <v>59174</v>
       </c>
-      <c r="D125" s="6">
+      <c r="D126" s="6">
         <v>130000</v>
       </c>
-      <c r="E125" s="7"/>
-      <c r="F125" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" ht="13.65" customHeight="1">
-      <c r="A126" s="4">
+      <c r="E126" s="8"/>
+      <c r="F126" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" ht="13.55" customHeight="1">
+      <c r="A127" s="6">
         <v>125</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B127" t="s" s="7">
         <v>130</v>
       </c>
-      <c r="C126" s="6">
+      <c r="C127" s="6">
         <v>4606</v>
       </c>
-      <c r="D126" s="6">
+      <c r="D127" s="6">
         <v>25000</v>
       </c>
-      <c r="E126" s="7"/>
-      <c r="F126" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" ht="13.65" customHeight="1">
-      <c r="A127" s="4">
+      <c r="E127" s="8"/>
+      <c r="F127" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" ht="13.55" customHeight="1">
+      <c r="A128" s="6">
         <v>126</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B128" t="s" s="7">
         <v>131</v>
       </c>
-      <c r="C127" s="6">
+      <c r="C128" s="6">
         <v>7655</v>
       </c>
-      <c r="D127" s="6">
+      <c r="D128" s="6">
         <v>58000</v>
       </c>
-      <c r="E127" s="7"/>
-      <c r="F127" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" ht="13.65" customHeight="1">
-      <c r="A128" s="4">
+      <c r="E128" s="8"/>
+      <c r="F128" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" ht="13.55" customHeight="1">
+      <c r="A129" s="6">
         <v>127</v>
       </c>
-      <c r="B128" t="s" s="2">
+      <c r="B129" t="s" s="7">
         <v>132</v>
       </c>
-      <c r="C128" s="6">
+      <c r="C129" s="6">
         <v>14000</v>
       </c>
-      <c r="D128" s="6">
+      <c r="D129" s="6">
         <v>100000</v>
       </c>
-      <c r="E128" s="7"/>
-      <c r="F128" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" ht="13.65" customHeight="1">
-      <c r="A129" s="4">
+      <c r="E129" s="8"/>
+      <c r="F129" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" ht="13.55" customHeight="1">
+      <c r="A130" s="6">
         <v>128</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B130" t="s" s="7">
         <v>133</v>
       </c>
-      <c r="C129" s="6">
+      <c r="C130" s="6">
         <v>15541</v>
       </c>
-      <c r="D129" s="6">
+      <c r="D130" s="6">
         <v>90000</v>
       </c>
-      <c r="E129" s="7"/>
-      <c r="F129" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" ht="13.65" customHeight="1">
-      <c r="A130" s="4">
+      <c r="E130" s="6">
+        <v>161</v>
+      </c>
+      <c r="F130" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" ht="13.55" customHeight="1">
+      <c r="A131" s="6">
         <v>129</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B131" t="s" s="7">
         <v>134</v>
       </c>
-      <c r="C130" s="6">
+      <c r="C131" s="6">
         <v>6602</v>
       </c>
-      <c r="D130" s="6">
+      <c r="D131" s="6">
         <v>36000</v>
       </c>
-      <c r="E130" s="4">
-        <v>161</v>
-      </c>
-      <c r="F130" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" ht="13.65" customHeight="1">
-      <c r="A131" s="4">
+      <c r="E131" s="8"/>
+      <c r="F131" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" ht="13.55" customHeight="1">
+      <c r="A132" s="6">
         <v>130</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B132" t="s" s="7">
         <v>135</v>
       </c>
-      <c r="C131" s="6">
+      <c r="C132" s="6">
         <v>11452</v>
       </c>
-      <c r="D131" s="6">
+      <c r="D132" s="6">
         <v>70000</v>
       </c>
-      <c r="E131" s="7"/>
-      <c r="F131" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" ht="13.65" customHeight="1">
-      <c r="A132" s="4">
+      <c r="E132" s="6">
+        <v>184</v>
+      </c>
+      <c r="F132" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" ht="13.55" customHeight="1">
+      <c r="A133" s="6">
         <v>131</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B133" t="s" s="7">
         <v>136</v>
       </c>
-      <c r="C132" s="6">
+      <c r="C133" s="6">
         <v>16059</v>
       </c>
-      <c r="D132" s="6">
+      <c r="D133" s="6">
         <v>77000</v>
       </c>
-      <c r="E132" s="7"/>
-      <c r="F132" s="4">
+      <c r="E133" s="6">
+        <v>184</v>
+      </c>
+      <c r="F133" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="133" ht="13.65" customHeight="1">
-      <c r="A133" s="4">
+    <row r="134" ht="13.55" customHeight="1">
+      <c r="A134" s="6">
         <v>132</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B134" t="s" s="7">
         <v>137</v>
       </c>
-      <c r="C133" s="6">
+      <c r="C134" s="6">
         <v>26350</v>
       </c>
-      <c r="D133" s="6">
+      <c r="D134" s="6">
         <v>170000</v>
       </c>
-      <c r="E133" s="7"/>
-      <c r="F133" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" ht="13.65" customHeight="1">
-      <c r="A134" s="4">
+      <c r="E134" s="8"/>
+      <c r="F134" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" ht="13.55" customHeight="1">
+      <c r="A135" s="6">
         <v>133</v>
       </c>
-      <c r="B134" t="s" s="2">
+      <c r="B135" t="s" s="7">
         <v>138</v>
       </c>
-      <c r="C134" s="6">
+      <c r="C135" s="6">
         <v>43263</v>
       </c>
-      <c r="D134" s="6">
+      <c r="D135" s="6">
         <v>180000</v>
       </c>
-      <c r="E134" s="7"/>
-      <c r="F134" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" ht="13.65" customHeight="1">
-      <c r="A135" s="4">
+      <c r="E135" s="6">
+        <v>184</v>
+      </c>
+      <c r="F135" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" ht="13.55" customHeight="1">
+      <c r="A136" s="6">
         <v>134</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B136" t="s" s="7">
         <v>139</v>
       </c>
-      <c r="C135" s="6">
+      <c r="C136" s="6">
         <v>9130</v>
       </c>
-      <c r="D135" s="6">
+      <c r="D136" s="6">
         <v>93000</v>
       </c>
-      <c r="E135" s="7"/>
-      <c r="F135" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" ht="13.65" customHeight="1">
-      <c r="A136" s="4">
+      <c r="E136" s="8"/>
+      <c r="F136" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" ht="13.55" customHeight="1">
+      <c r="A137" s="6">
         <v>135</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B137" t="s" s="7">
         <v>140</v>
       </c>
-      <c r="C136" s="6">
+      <c r="C137" s="6">
         <v>11650</v>
       </c>
-      <c r="D136" s="6">
+      <c r="D137" s="6">
         <v>65000</v>
       </c>
-      <c r="E136" s="7"/>
-      <c r="F136" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" ht="13.65" customHeight="1">
-      <c r="A137" s="4">
+      <c r="E137" s="6">
+        <v>155</v>
+      </c>
+      <c r="F137" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" ht="13.55" customHeight="1">
+      <c r="A138" s="6">
         <v>136</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B138" t="s" s="7">
         <v>141</v>
       </c>
-      <c r="C137" s="6">
+      <c r="C138" s="6">
         <v>17482</v>
       </c>
-      <c r="D137" s="6">
+      <c r="D138" s="6">
         <v>80000</v>
       </c>
-      <c r="E137" s="4">
-        <v>155</v>
-      </c>
-      <c r="F137" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" ht="13.65" customHeight="1">
-      <c r="A138" s="4">
+      <c r="E138" s="6">
+        <v>89</v>
+      </c>
+      <c r="F138" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" ht="13.55" customHeight="1">
+      <c r="A139" s="6">
         <v>137</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B139" t="s" s="7">
         <v>142</v>
       </c>
-      <c r="C138" s="6">
+      <c r="C139" s="6">
         <v>8800</v>
       </c>
-      <c r="D138" s="6">
+      <c r="D139" s="6">
         <v>78000</v>
       </c>
-      <c r="E138" s="4">
-        <v>89</v>
-      </c>
-      <c r="F138" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" ht="13.65" customHeight="1">
-      <c r="A139" s="4">
+      <c r="E139" s="6">
+        <v>171</v>
+      </c>
+      <c r="F139" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" ht="13.55" customHeight="1">
+      <c r="A140" s="6">
         <v>138</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="B140" t="s" s="7">
         <v>143</v>
       </c>
-      <c r="C139" s="6">
+      <c r="C140" s="6">
         <v>10620</v>
       </c>
-      <c r="D139" s="6">
+      <c r="D140" s="6">
         <v>220000</v>
       </c>
-      <c r="E139" s="4">
-        <v>171</v>
-      </c>
-      <c r="F139" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" ht="13.65" customHeight="1">
-      <c r="A140" s="4">
+      <c r="E140" s="8"/>
+      <c r="F140" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" ht="13.55" customHeight="1">
+      <c r="A141" s="6">
         <v>139</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B141" t="s" s="7">
         <v>144</v>
       </c>
-      <c r="C140" s="6">
+      <c r="C141" s="6">
         <v>11268</v>
       </c>
-      <c r="D140" s="6">
+      <c r="D141" s="6">
         <v>100000</v>
       </c>
-      <c r="E140" s="7"/>
-      <c r="F140" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" ht="13.65" customHeight="1">
-      <c r="A141" s="4">
+      <c r="E141" s="6">
+        <v>184</v>
+      </c>
+      <c r="F141" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" ht="13.55" customHeight="1">
+      <c r="A142" s="6">
         <v>140</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B142" t="s" s="7">
         <v>145</v>
       </c>
-      <c r="C141" s="6">
+      <c r="C142" s="6">
         <v>13596</v>
       </c>
-      <c r="D141" s="6">
+      <c r="D142" s="6">
         <v>94000</v>
       </c>
-      <c r="E141" s="7"/>
-      <c r="F141" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" ht="13.65" customHeight="1">
-      <c r="A142" s="4">
+      <c r="E142" s="8"/>
+      <c r="F142" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" ht="13.55" customHeight="1">
+      <c r="A143" s="6">
         <v>141</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B143" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="C142" s="6">
+      <c r="C143" s="6">
         <v>18144</v>
       </c>
-      <c r="D142" s="6">
+      <c r="D143" s="6">
         <v>64000</v>
       </c>
-      <c r="E142" s="7"/>
-      <c r="F142" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" ht="13.65" customHeight="1">
-      <c r="A143" s="4">
+      <c r="E143" s="8"/>
+      <c r="F143" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" ht="13.55" customHeight="1">
+      <c r="A144" s="6">
         <v>142</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B144" t="s" s="7">
         <v>147</v>
       </c>
-      <c r="C143" s="6">
+      <c r="C144" s="6">
         <v>18617</v>
       </c>
-      <c r="D143" s="6">
+      <c r="D144" s="6">
         <v>120000</v>
       </c>
-      <c r="E143" s="7"/>
-      <c r="F143" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" ht="13.65" customHeight="1">
-      <c r="A144" s="4">
+      <c r="E144" s="6">
+        <v>177</v>
+      </c>
+      <c r="F144" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" ht="13.55" customHeight="1">
+      <c r="A145" s="6">
         <v>143</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B145" t="s" s="7">
         <v>148</v>
       </c>
-      <c r="C144" s="6">
+      <c r="C145" s="6">
         <v>21903</v>
       </c>
-      <c r="D144" s="6">
+      <c r="D145" s="6">
         <v>300000</v>
       </c>
-      <c r="E144" s="4">
-        <v>177</v>
-      </c>
-      <c r="F144" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" ht="13.65" customHeight="1">
-      <c r="A145" s="4">
+      <c r="E145" s="8"/>
+      <c r="F145" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" ht="13.55" customHeight="1">
+      <c r="A146" s="6">
         <v>144</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B146" t="s" s="7">
         <v>149</v>
       </c>
-      <c r="C145" s="6">
+      <c r="C146" s="6">
         <v>7089</v>
       </c>
-      <c r="D145" s="6">
+      <c r="D146" s="6">
         <v>42000</v>
       </c>
-      <c r="E145" s="7"/>
-      <c r="F145" s="4">
+      <c r="E146" s="6">
+        <v>179</v>
+      </c>
+      <c r="F146" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="146" ht="13.65" customHeight="1">
-      <c r="A146" s="4">
+    <row r="147" ht="13.55" customHeight="1">
+      <c r="A147" s="6">
         <v>145</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B147" t="s" s="7">
         <v>150</v>
       </c>
-      <c r="C146" s="6">
+      <c r="C147" s="6">
         <v>10619</v>
       </c>
-      <c r="D146" s="6">
+      <c r="D147" s="6">
         <v>50000</v>
       </c>
-      <c r="E146" s="7"/>
-      <c r="F146" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" ht="13.65" customHeight="1">
-      <c r="A147" s="4">
+      <c r="E147" s="6">
+        <v>179</v>
+      </c>
+      <c r="F147" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" ht="13.55" customHeight="1">
+      <c r="A148" s="6">
         <v>146</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B148" t="s" s="7">
         <v>151</v>
-      </c>
-      <c r="C147" s="6">
-        <v>11550</v>
-      </c>
-      <c r="D147" s="6">
-        <v>80000</v>
-      </c>
-      <c r="E147" s="7"/>
-      <c r="F147" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" ht="13.65" customHeight="1">
-      <c r="A148" s="4">
-        <v>147</v>
-      </c>
-      <c r="B148" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="C148" s="6">
         <v>11550</v>
       </c>
       <c r="D148" s="6">
+        <v>80000</v>
+      </c>
+      <c r="E148" s="6">
+        <v>179</v>
+      </c>
+      <c r="F148" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" ht="13.55" customHeight="1">
+      <c r="A149" s="6">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s" s="7">
+        <v>152</v>
+      </c>
+      <c r="C149" s="6">
+        <v>11550</v>
+      </c>
+      <c r="D149" s="6">
         <v>120000</v>
       </c>
-      <c r="E148" s="7"/>
-      <c r="F148" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" ht="13.65" customHeight="1">
-      <c r="A149" s="4">
+      <c r="E149" s="8"/>
+      <c r="F149" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" ht="13.55" customHeight="1">
+      <c r="A150" s="6">
         <v>148</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B150" t="s" s="7">
         <v>153</v>
-      </c>
-      <c r="C149" s="6">
-        <v>12297</v>
-      </c>
-      <c r="D149" s="6">
-        <v>88000</v>
-      </c>
-      <c r="E149" s="7"/>
-      <c r="F149" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" ht="13.65" customHeight="1">
-      <c r="A150" s="4">
-        <v>149</v>
-      </c>
-      <c r="B150" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="C150" s="6">
         <v>12297</v>
       </c>
       <c r="D150" s="6">
+        <v>88000</v>
+      </c>
+      <c r="E150" s="6">
+        <v>179</v>
+      </c>
+      <c r="F150" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" ht="13.55" customHeight="1">
+      <c r="A151" s="6">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s" s="7">
+        <v>154</v>
+      </c>
+      <c r="C151" s="6">
+        <v>12297</v>
+      </c>
+      <c r="D151" s="6">
         <v>91000</v>
       </c>
-      <c r="E150" s="7"/>
-      <c r="F150" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" ht="13.65" customHeight="1">
-      <c r="A151" s="4">
+      <c r="E151" s="6">
+        <v>179</v>
+      </c>
+      <c r="F151" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" ht="13.55" customHeight="1">
+      <c r="A152" s="6">
         <v>150</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B152" t="s" s="7">
         <v>155</v>
       </c>
-      <c r="C151" s="6">
+      <c r="C152" s="6">
         <v>26651</v>
       </c>
-      <c r="D151" s="6">
+      <c r="D152" s="6">
         <v>280000</v>
       </c>
-      <c r="E151" s="7"/>
-      <c r="F151" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" ht="13.65" customHeight="1">
-      <c r="A152" s="4">
+      <c r="E152" s="8"/>
+      <c r="F152" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" ht="13.55" customHeight="1">
+      <c r="A153" s="6">
         <v>151</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B153" t="s" s="7">
         <v>156</v>
       </c>
-      <c r="C152" s="6">
+      <c r="C153" s="6">
         <v>35466</v>
       </c>
-      <c r="D152" s="6">
+      <c r="D153" s="6">
         <v>500000</v>
       </c>
-      <c r="E152" s="7"/>
-      <c r="F152" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" ht="13.65" customHeight="1">
-      <c r="A153" s="4">
+      <c r="E153" s="8"/>
+      <c r="F153" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" ht="13.55" customHeight="1">
+      <c r="A154" s="6">
         <v>152</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B154" t="s" s="7">
         <v>157</v>
       </c>
-      <c r="C153" s="6">
+      <c r="C154" s="6">
         <v>12569</v>
       </c>
-      <c r="D153" s="6">
+      <c r="D154" s="6">
         <v>160000</v>
       </c>
-      <c r="E153" s="7"/>
-      <c r="F153" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" ht="13.65" customHeight="1">
-      <c r="A154" s="4">
+      <c r="E154" s="6">
+        <v>184</v>
+      </c>
+      <c r="F154" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" ht="13.55" customHeight="1">
+      <c r="A155" s="6">
         <v>153</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B155" t="s" s="7">
         <v>158</v>
       </c>
-      <c r="C154" s="6">
+      <c r="C155" s="6">
         <v>13397</v>
       </c>
-      <c r="D154" s="6">
+      <c r="D155" s="6">
         <v>200000</v>
       </c>
-      <c r="E154" s="7"/>
-      <c r="F154" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" ht="13.65" customHeight="1">
-      <c r="A155" s="4">
+      <c r="E155" s="8"/>
+      <c r="F155" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" ht="13.55" customHeight="1">
+      <c r="A156" s="6">
         <v>154</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B156" t="s" s="7">
         <v>159</v>
       </c>
-      <c r="C155" s="6">
+      <c r="C156" s="6">
         <v>14492</v>
       </c>
-      <c r="D155" s="6">
+      <c r="D156" s="6">
         <v>84000</v>
       </c>
-      <c r="E155" s="7"/>
-      <c r="F155" s="4">
+      <c r="E156" s="8"/>
+      <c r="F156" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="156" ht="13.65" customHeight="1">
-      <c r="A156" s="4">
+    <row r="157" ht="13.55" customHeight="1">
+      <c r="A157" s="6">
         <v>155</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B157" t="s" s="7">
         <v>160</v>
       </c>
-      <c r="C156" s="6">
+      <c r="C157" s="6">
         <v>17625</v>
       </c>
-      <c r="D156" s="6">
+      <c r="D157" s="6">
         <v>220000</v>
       </c>
-      <c r="E156" s="7"/>
-      <c r="F156" s="4">
+      <c r="E157" s="6">
+        <v>184</v>
+      </c>
+      <c r="F157" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="157" ht="13.65" customHeight="1">
-      <c r="A157" s="4">
+    <row r="158" ht="13.55" customHeight="1">
+      <c r="A158" s="6">
         <v>156</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B158" t="s" s="7">
         <v>161</v>
       </c>
-      <c r="C157" s="6">
+      <c r="C158" s="6">
         <v>18389</v>
       </c>
-      <c r="D157" s="6">
+      <c r="D158" s="6">
         <v>420000</v>
       </c>
-      <c r="E157" s="7"/>
-      <c r="F157" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" ht="13.65" customHeight="1">
-      <c r="A158" s="4">
+      <c r="E158" s="8"/>
+      <c r="F158" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" ht="13.55" customHeight="1">
+      <c r="A159" s="6">
         <v>157</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B159" t="s" s="7">
         <v>162</v>
       </c>
-      <c r="C158" s="6">
+      <c r="C159" s="6">
         <v>25649</v>
       </c>
-      <c r="D158" s="6">
+      <c r="D159" s="6">
         <v>180000</v>
       </c>
-      <c r="E158" s="7"/>
-      <c r="F158" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" ht="13.65" customHeight="1">
-      <c r="A159" s="4">
+      <c r="E159" s="6">
+        <v>184</v>
+      </c>
+      <c r="F159" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" ht="13.55" customHeight="1">
+      <c r="A160" s="6">
         <v>158</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B160" t="s" s="7">
         <v>163</v>
       </c>
-      <c r="C159" s="6">
+      <c r="C160" s="6">
         <v>33251</v>
       </c>
-      <c r="D159" s="6">
+      <c r="D160" s="6">
         <v>480000</v>
       </c>
-      <c r="E159" s="7"/>
-      <c r="F159" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" ht="13.65" customHeight="1">
-      <c r="A160" s="4">
+      <c r="E160" s="8"/>
+      <c r="F160" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" ht="13.55" customHeight="1">
+      <c r="A161" s="6">
         <v>159</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B161" t="s" s="7">
         <v>164</v>
       </c>
-      <c r="C160" s="6">
+      <c r="C161" s="6">
         <v>1191</v>
       </c>
-      <c r="D160" s="4">
+      <c r="D161" s="6">
         <v>800</v>
       </c>
-      <c r="E160" s="7"/>
-      <c r="F160" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" ht="13.65" customHeight="1">
-      <c r="A161" s="4">
+      <c r="E161" s="6">
+        <v>19</v>
+      </c>
+      <c r="F161" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" ht="13.55" customHeight="1">
+      <c r="A162" s="6">
         <v>160</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B162" t="s" s="7">
         <v>165</v>
       </c>
-      <c r="C161" s="6">
+      <c r="C162" s="6">
         <v>1717</v>
       </c>
-      <c r="D161" s="6">
+      <c r="D162" s="6">
         <v>3800</v>
       </c>
-      <c r="E161" s="4">
-        <v>19</v>
-      </c>
-      <c r="F161" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" ht="13.65" customHeight="1">
-      <c r="A162" s="4">
+      <c r="E162" s="6">
+        <v>81</v>
+      </c>
+      <c r="F162" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" ht="13.55" customHeight="1">
+      <c r="A163" s="6">
         <v>161</v>
       </c>
-      <c r="B162" t="s" s="2">
+      <c r="B163" t="s" s="7">
         <v>166</v>
       </c>
-      <c r="C162" s="6">
+      <c r="C163" s="6">
         <v>3202</v>
       </c>
-      <c r="D162" s="6">
+      <c r="D163" s="6">
         <v>9000</v>
       </c>
-      <c r="E162" s="4">
-        <v>81</v>
-      </c>
-      <c r="F162" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" ht="13.65" customHeight="1">
-      <c r="A163" s="4">
+      <c r="E163" s="6">
+        <v>147</v>
+      </c>
+      <c r="F163" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" ht="13.55" customHeight="1">
+      <c r="A164" s="6">
         <v>162</v>
       </c>
-      <c r="B163" t="s" s="2">
+      <c r="B164" t="s" s="7">
         <v>167</v>
       </c>
-      <c r="C163" s="6">
+      <c r="C164" s="6">
         <v>3511</v>
       </c>
-      <c r="D163" s="6">
+      <c r="D164" s="6">
         <v>30000</v>
       </c>
-      <c r="E163" s="4">
-        <v>147</v>
-      </c>
-      <c r="F163" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" ht="13.65" customHeight="1">
-      <c r="A164" s="4">
+      <c r="E164" s="8"/>
+      <c r="F164" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" ht="13.55" customHeight="1">
+      <c r="A165" s="6">
         <v>163</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B165" t="s" s="7">
         <v>168</v>
       </c>
-      <c r="C164" s="6">
+      <c r="C165" s="6">
         <v>5366</v>
       </c>
-      <c r="D164" s="6">
+      <c r="D165" s="6">
         <v>75000</v>
       </c>
-      <c r="E164" s="7"/>
-      <c r="F164" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" ht="13.65" customHeight="1">
-      <c r="A165" s="4">
+      <c r="E165" s="8"/>
+      <c r="F165" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" ht="13.55" customHeight="1">
+      <c r="A166" s="6">
         <v>164</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B166" t="s" s="7">
         <v>169</v>
       </c>
-      <c r="C165" s="6">
+      <c r="C166" s="6">
         <v>8569</v>
       </c>
-      <c r="D165" s="6">
+      <c r="D166" s="6">
         <v>40000</v>
       </c>
-      <c r="E165" s="7"/>
-      <c r="F165" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" ht="13.65" customHeight="1">
-      <c r="A166" s="4">
+      <c r="E166" s="8"/>
+      <c r="F166" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" ht="13.55" customHeight="1">
+      <c r="A167" s="6">
         <v>165</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B167" t="s" s="7">
         <v>170</v>
       </c>
-      <c r="C166" s="6">
+      <c r="C167" s="6">
         <v>6226</v>
       </c>
-      <c r="D166" s="6">
+      <c r="D167" s="6">
         <v>150000</v>
       </c>
-      <c r="E166" s="7"/>
-      <c r="F166" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" ht="13.65" customHeight="1">
-      <c r="A167" s="7"/>
-      <c r="B167" s="7"/>
-      <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
-      <c r="E167" s="7"/>
-      <c r="F167" s="7"/>
-    </row>
-    <row r="168" ht="13.65" customHeight="1">
-      <c r="A168" s="7"/>
-      <c r="B168" s="7"/>
-      <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
-      <c r="E168" s="7"/>
-      <c r="F168" s="7"/>
-    </row>
-    <row r="169" ht="13.65" customHeight="1">
-      <c r="A169" s="7"/>
-      <c r="B169" s="7"/>
-      <c r="C169" s="6"/>
-      <c r="D169" s="6"/>
-      <c r="E169" s="7"/>
-      <c r="F169" s="7"/>
-    </row>
-    <row r="170" ht="13.65" customHeight="1">
-      <c r="A170" s="7"/>
-      <c r="B170" s="7"/>
-      <c r="C170" s="6"/>
-      <c r="D170" s="6"/>
-      <c r="E170" s="7"/>
-      <c r="F170" s="7"/>
-    </row>
-    <row r="171" ht="13.65" customHeight="1">
-      <c r="A171" s="7"/>
-      <c r="B171" s="7"/>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="7"/>
-      <c r="F171" s="7"/>
-    </row>
-    <row r="172" ht="13.65" customHeight="1">
-      <c r="A172" s="7"/>
-      <c r="B172" s="7"/>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="7"/>
-      <c r="F172" s="7"/>
-    </row>
-    <row r="173" ht="13.65" customHeight="1">
-      <c r="A173" s="7"/>
-      <c r="B173" s="7"/>
-      <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
-      <c r="E173" s="7"/>
-      <c r="F173" s="7"/>
-    </row>
-    <row r="174" ht="13.65" customHeight="1">
-      <c r="A174" s="7"/>
-      <c r="B174" s="7"/>
-      <c r="C174" s="6"/>
-      <c r="D174" s="6"/>
-      <c r="E174" s="7"/>
-      <c r="F174" s="7"/>
-    </row>
-    <row r="175" ht="13.65" customHeight="1">
-      <c r="A175" s="7"/>
-      <c r="B175" s="7"/>
-      <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
-      <c r="E175" s="7"/>
-      <c r="F175" s="7"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
